--- a/Barnabás.xlsx
+++ b/Barnabás.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gteszt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1882_83_1" sheetId="2" r:id="rId1"/>
-    <sheet name="Munka1" sheetId="1" r:id="rId2"/>
+    <sheet name="1882_83_2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -892,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
